--- a/data/xlsx/GQ.xlsx
+++ b/data/xlsx/GQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/codeforiati/gov-id-finder-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFDB063-2103-F843-940E-CA58078C5F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21804A-4597-744E-898D-A61CB90D36A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15000" xr2:uid="{B000531D-AD1A-F949-AD11-6418DAD56123}"/>
   </bookViews>
@@ -164,7 +164,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>name_en</t>
+    <t>name_es</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
